--- a/data/outputs/management/57.xlsx
+++ b/data/outputs/management/57.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BQ117"/>
+  <dimension ref="A1:BR117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -712,6 +712,11 @@
           <t>Unnamed: 68</t>
         </is>
       </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>citation_id</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -923,6 +928,11 @@
         </is>
       </c>
       <c r="BQ2" t="inlineStr"/>
+      <c r="BR2" t="inlineStr">
+        <is>
+          <t>4476235</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1130,6 +1140,11 @@
         </is>
       </c>
       <c r="BQ3" t="inlineStr"/>
+      <c r="BR3" t="inlineStr">
+        <is>
+          <t>4659587</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1345,6 +1360,11 @@
         </is>
       </c>
       <c r="BQ4" t="inlineStr"/>
+      <c r="BR4" t="inlineStr">
+        <is>
+          <t>4617880</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1544,6 +1564,7 @@
         </is>
       </c>
       <c r="BQ5" t="inlineStr"/>
+      <c r="BR5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1743,6 +1764,11 @@
         </is>
       </c>
       <c r="BQ6" t="inlineStr"/>
+      <c r="BR6" t="inlineStr">
+        <is>
+          <t>4586206</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1958,6 +1984,11 @@
         </is>
       </c>
       <c r="BQ7" t="inlineStr"/>
+      <c r="BR7" t="inlineStr">
+        <is>
+          <t>4508150</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2165,6 +2196,11 @@
         </is>
       </c>
       <c r="BQ8" t="inlineStr"/>
+      <c r="BR8" t="inlineStr">
+        <is>
+          <t>4951426</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2380,6 +2416,7 @@
         </is>
       </c>
       <c r="BQ9" t="inlineStr"/>
+      <c r="BR9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2583,6 +2620,7 @@
         </is>
       </c>
       <c r="BQ10" t="inlineStr"/>
+      <c r="BR10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2790,6 +2828,11 @@
         </is>
       </c>
       <c r="BQ11" t="inlineStr"/>
+      <c r="BR11" t="inlineStr">
+        <is>
+          <t>4436429</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2997,6 +3040,7 @@
         </is>
       </c>
       <c r="BQ12" t="inlineStr"/>
+      <c r="BR12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3204,6 +3248,7 @@
         </is>
       </c>
       <c r="BQ13" t="inlineStr"/>
+      <c r="BR13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3419,6 +3464,11 @@
         </is>
       </c>
       <c r="BQ14" t="inlineStr"/>
+      <c r="BR14" t="inlineStr">
+        <is>
+          <t>4425814</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3638,6 +3688,7 @@
         </is>
       </c>
       <c r="BQ15" t="inlineStr"/>
+      <c r="BR15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3837,6 +3888,11 @@
         </is>
       </c>
       <c r="BQ16" t="inlineStr"/>
+      <c r="BR16" t="inlineStr">
+        <is>
+          <t>4670566</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4044,6 +4100,7 @@
         </is>
       </c>
       <c r="BQ17" t="inlineStr"/>
+      <c r="BR17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4247,6 +4304,7 @@
         </is>
       </c>
       <c r="BQ18" t="inlineStr"/>
+      <c r="BR18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4446,6 +4504,7 @@
         </is>
       </c>
       <c r="BQ19" t="inlineStr"/>
+      <c r="BR19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4645,6 +4704,7 @@
         </is>
       </c>
       <c r="BQ20" t="inlineStr"/>
+      <c r="BR20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4856,6 +4916,7 @@
         </is>
       </c>
       <c r="BQ21" t="inlineStr"/>
+      <c r="BR21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5071,6 +5132,7 @@
         </is>
       </c>
       <c r="BQ22" t="inlineStr"/>
+      <c r="BR22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5286,6 +5348,7 @@
         </is>
       </c>
       <c r="BQ23" t="inlineStr"/>
+      <c r="BR23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5497,6 +5560,7 @@
         </is>
       </c>
       <c r="BQ24" t="inlineStr"/>
+      <c r="BR24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5708,6 +5772,7 @@
         </is>
       </c>
       <c r="BQ25" t="inlineStr"/>
+      <c r="BR25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5915,6 +5980,11 @@
         </is>
       </c>
       <c r="BQ26" t="inlineStr"/>
+      <c r="BR26" t="inlineStr">
+        <is>
+          <t>4416354</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6118,6 +6188,11 @@
         </is>
       </c>
       <c r="BQ27" t="inlineStr"/>
+      <c r="BR27" t="inlineStr">
+        <is>
+          <t>4359515</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6329,6 +6404,11 @@
         </is>
       </c>
       <c r="BQ28" t="inlineStr"/>
+      <c r="BR28" t="inlineStr">
+        <is>
+          <t>4586227</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6544,6 +6624,7 @@
         </is>
       </c>
       <c r="BQ29" t="inlineStr"/>
+      <c r="BR29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6743,6 +6824,11 @@
         </is>
       </c>
       <c r="BQ30" t="inlineStr"/>
+      <c r="BR30" t="inlineStr">
+        <is>
+          <t>4137344</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -6946,6 +7032,7 @@
         </is>
       </c>
       <c r="BQ31" t="inlineStr"/>
+      <c r="BR31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7157,6 +7244,7 @@
         </is>
       </c>
       <c r="BQ32" t="inlineStr"/>
+      <c r="BR32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7364,6 +7452,7 @@
         </is>
       </c>
       <c r="BQ33" t="inlineStr"/>
+      <c r="BR33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7579,6 +7668,7 @@
         </is>
       </c>
       <c r="BQ34" t="inlineStr"/>
+      <c r="BR34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7770,6 +7860,7 @@
         </is>
       </c>
       <c r="BQ35" t="inlineStr"/>
+      <c r="BR35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -7973,6 +8064,11 @@
         </is>
       </c>
       <c r="BQ36" t="inlineStr"/>
+      <c r="BR36" t="inlineStr">
+        <is>
+          <t>4169308</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8172,6 +8268,7 @@
         </is>
       </c>
       <c r="BQ37" t="inlineStr"/>
+      <c r="BR37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8387,6 +8484,7 @@
         </is>
       </c>
       <c r="BQ38" t="inlineStr"/>
+      <c r="BR38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8590,6 +8688,7 @@
         </is>
       </c>
       <c r="BQ39" t="inlineStr"/>
+      <c r="BR39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -8797,6 +8896,7 @@
         </is>
       </c>
       <c r="BQ40" t="inlineStr"/>
+      <c r="BR40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -9000,6 +9100,11 @@
         </is>
       </c>
       <c r="BQ41" t="inlineStr"/>
+      <c r="BR41" t="inlineStr">
+        <is>
+          <t>4112727</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9207,6 +9312,7 @@
         </is>
       </c>
       <c r="BQ42" t="inlineStr"/>
+      <c r="BR42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9414,6 +9520,11 @@
         </is>
       </c>
       <c r="BQ43" t="inlineStr"/>
+      <c r="BR43" t="inlineStr">
+        <is>
+          <t>4199573</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -9613,6 +9724,7 @@
         </is>
       </c>
       <c r="BQ44" t="inlineStr"/>
+      <c r="BR44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -9828,6 +9940,7 @@
         </is>
       </c>
       <c r="BQ45" t="inlineStr"/>
+      <c r="BR45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -10035,6 +10148,11 @@
         </is>
       </c>
       <c r="BQ46" t="inlineStr"/>
+      <c r="BR46" t="inlineStr">
+        <is>
+          <t>4232708</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10250,6 +10368,7 @@
         </is>
       </c>
       <c r="BQ47" t="inlineStr"/>
+      <c r="BR47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10465,6 +10584,11 @@
         </is>
       </c>
       <c r="BQ48" t="inlineStr"/>
+      <c r="BR48" t="inlineStr">
+        <is>
+          <t>3966603</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -10652,6 +10776,7 @@
         </is>
       </c>
       <c r="BQ49" t="inlineStr"/>
+      <c r="BR49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -10859,6 +10984,11 @@
         </is>
       </c>
       <c r="BQ50" t="inlineStr"/>
+      <c r="BR50" t="inlineStr">
+        <is>
+          <t>4738009</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -11066,6 +11196,7 @@
         </is>
       </c>
       <c r="BQ51" t="inlineStr"/>
+      <c r="BR51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -11273,6 +11404,7 @@
         </is>
       </c>
       <c r="BQ52" t="inlineStr"/>
+      <c r="BR52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -11468,6 +11600,7 @@
         </is>
       </c>
       <c r="BQ53" t="inlineStr"/>
+      <c r="BR53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -11675,6 +11808,7 @@
         </is>
       </c>
       <c r="BQ54" t="inlineStr"/>
+      <c r="BR54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -11878,6 +12012,7 @@
         </is>
       </c>
       <c r="BQ55" t="inlineStr"/>
+      <c r="BR55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -12093,6 +12228,7 @@
         </is>
       </c>
       <c r="BQ56" t="inlineStr"/>
+      <c r="BR56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -12296,6 +12432,7 @@
         </is>
       </c>
       <c r="BQ57" t="inlineStr"/>
+      <c r="BR57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -12511,6 +12648,7 @@
         </is>
       </c>
       <c r="BQ58" t="inlineStr"/>
+      <c r="BR58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -12718,6 +12856,11 @@
         </is>
       </c>
       <c r="BQ59" t="inlineStr"/>
+      <c r="BR59" t="inlineStr">
+        <is>
+          <t>3983755</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -12917,6 +13060,7 @@
         </is>
       </c>
       <c r="BQ60" t="inlineStr"/>
+      <c r="BR60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -13128,6 +13272,7 @@
         </is>
       </c>
       <c r="BQ61" t="inlineStr"/>
+      <c r="BR61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -13335,6 +13480,7 @@
         </is>
       </c>
       <c r="BQ62" t="inlineStr"/>
+      <c r="BR62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -13550,6 +13696,11 @@
         </is>
       </c>
       <c r="BQ63" t="inlineStr"/>
+      <c r="BR63" t="inlineStr">
+        <is>
+          <t>3986123</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -13749,6 +13900,7 @@
         </is>
       </c>
       <c r="BQ64" t="inlineStr"/>
+      <c r="BR64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -13948,6 +14100,7 @@
         </is>
       </c>
       <c r="BQ65" t="inlineStr"/>
+      <c r="BR65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -14163,6 +14316,7 @@
         </is>
       </c>
       <c r="BQ66" t="inlineStr"/>
+      <c r="BR66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -14378,6 +14532,7 @@
         </is>
       </c>
       <c r="BQ67" t="inlineStr"/>
+      <c r="BR67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -14577,6 +14732,11 @@
         </is>
       </c>
       <c r="BQ68" t="inlineStr"/>
+      <c r="BR68" t="inlineStr">
+        <is>
+          <t>3925246</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -14788,6 +14948,7 @@
         </is>
       </c>
       <c r="BQ69" t="inlineStr"/>
+      <c r="BR69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -14995,6 +15156,11 @@
         </is>
       </c>
       <c r="BQ70" t="inlineStr"/>
+      <c r="BR70" t="inlineStr">
+        <is>
+          <t>3879464</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -15202,6 +15368,7 @@
         </is>
       </c>
       <c r="BQ71" t="inlineStr"/>
+      <c r="BR71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -15417,6 +15584,11 @@
         </is>
       </c>
       <c r="BQ72" t="inlineStr"/>
+      <c r="BR72" t="inlineStr">
+        <is>
+          <t>4882853</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -15632,6 +15804,7 @@
         </is>
       </c>
       <c r="BQ73" t="inlineStr"/>
+      <c r="BR73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -15847,6 +16020,7 @@
         </is>
       </c>
       <c r="BQ74" t="inlineStr"/>
+      <c r="BR74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -16054,6 +16228,11 @@
         </is>
       </c>
       <c r="BQ75" t="inlineStr"/>
+      <c r="BR75" t="inlineStr">
+        <is>
+          <t>4448928</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -16261,6 +16440,7 @@
         </is>
       </c>
       <c r="BQ76" t="inlineStr"/>
+      <c r="BR76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -16468,6 +16648,7 @@
         </is>
       </c>
       <c r="BQ77" t="inlineStr"/>
+      <c r="BR77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -16671,6 +16852,11 @@
         </is>
       </c>
       <c r="BQ78" t="inlineStr"/>
+      <c r="BR78" t="inlineStr">
+        <is>
+          <t>3800906</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -16870,6 +17056,7 @@
         </is>
       </c>
       <c r="BQ79" t="inlineStr"/>
+      <c r="BR79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -17073,6 +17260,7 @@
         </is>
       </c>
       <c r="BQ80" t="inlineStr"/>
+      <c r="BR80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -17272,6 +17460,11 @@
         </is>
       </c>
       <c r="BQ81" t="inlineStr"/>
+      <c r="BR81" t="inlineStr">
+        <is>
+          <t>3857100</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -17471,6 +17664,7 @@
         </is>
       </c>
       <c r="BQ82" t="inlineStr"/>
+      <c r="BR82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -17670,6 +17864,7 @@
         </is>
       </c>
       <c r="BQ83" t="inlineStr"/>
+      <c r="BR83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -17869,6 +18064,11 @@
         </is>
       </c>
       <c r="BQ84" t="inlineStr"/>
+      <c r="BR84" t="inlineStr">
+        <is>
+          <t>3857107</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -18084,6 +18284,11 @@
         </is>
       </c>
       <c r="BQ85" t="inlineStr"/>
+      <c r="BR85" t="inlineStr">
+        <is>
+          <t>3755371</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -18299,6 +18504,11 @@
         </is>
       </c>
       <c r="BQ86" t="inlineStr"/>
+      <c r="BR86" t="inlineStr">
+        <is>
+          <t>4814733</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -18514,6 +18724,7 @@
         </is>
       </c>
       <c r="BQ87" t="inlineStr"/>
+      <c r="BR87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -18725,6 +18936,7 @@
         </is>
       </c>
       <c r="BQ88" t="inlineStr"/>
+      <c r="BR88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -18924,6 +19136,7 @@
         </is>
       </c>
       <c r="BQ89" t="inlineStr"/>
+      <c r="BR89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -19131,6 +19344,7 @@
         </is>
       </c>
       <c r="BQ90" t="inlineStr"/>
+      <c r="BR90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -19346,6 +19560,7 @@
         </is>
       </c>
       <c r="BQ91" t="inlineStr"/>
+      <c r="BR91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -19549,6 +19764,7 @@
         </is>
       </c>
       <c r="BQ92" t="inlineStr"/>
+      <c r="BR92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -19756,6 +19972,11 @@
         </is>
       </c>
       <c r="BQ93" t="inlineStr"/>
+      <c r="BR93" t="inlineStr">
+        <is>
+          <t>13552081</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -19963,6 +20184,7 @@
         </is>
       </c>
       <c r="BQ94" t="inlineStr"/>
+      <c r="BR94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -20170,6 +20392,11 @@
         </is>
       </c>
       <c r="BQ95" t="inlineStr"/>
+      <c r="BR95" t="inlineStr">
+        <is>
+          <t>3105232</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -20377,6 +20604,7 @@
         </is>
       </c>
       <c r="BQ96" t="inlineStr"/>
+      <c r="BR96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -20576,6 +20804,7 @@
         </is>
       </c>
       <c r="BQ97" t="inlineStr"/>
+      <c r="BR97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -20775,6 +21004,7 @@
         </is>
       </c>
       <c r="BQ98" t="inlineStr"/>
+      <c r="BR98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -20978,6 +21208,11 @@
         </is>
       </c>
       <c r="BQ99" t="inlineStr"/>
+      <c r="BR99" t="inlineStr">
+        <is>
+          <t>3703861</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -21177,6 +21412,11 @@
         </is>
       </c>
       <c r="BQ100" t="inlineStr"/>
+      <c r="BR100" t="inlineStr">
+        <is>
+          <t>3105227</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -21388,6 +21628,7 @@
         </is>
       </c>
       <c r="BQ101" t="inlineStr"/>
+      <c r="BR101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -21595,6 +21836,11 @@
         </is>
       </c>
       <c r="BQ102" t="inlineStr"/>
+      <c r="BR102" t="inlineStr">
+        <is>
+          <t>2987009</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -21794,6 +22040,7 @@
         </is>
       </c>
       <c r="BQ103" t="inlineStr"/>
+      <c r="BR103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -21993,6 +22240,11 @@
         </is>
       </c>
       <c r="BQ104" t="inlineStr"/>
+      <c r="BR104" t="inlineStr">
+        <is>
+          <t>9909001</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -22196,6 +22448,7 @@
         </is>
       </c>
       <c r="BQ105" t="inlineStr"/>
+      <c r="BR105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -22395,6 +22648,7 @@
         </is>
       </c>
       <c r="BQ106" t="inlineStr"/>
+      <c r="BR106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -22602,6 +22856,11 @@
         </is>
       </c>
       <c r="BQ107" t="inlineStr"/>
+      <c r="BR107" t="inlineStr">
+        <is>
+          <t>9910278</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -22823,6 +23082,7 @@
         </is>
       </c>
       <c r="BQ108" t="inlineStr"/>
+      <c r="BR108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -23026,6 +23286,11 @@
         </is>
       </c>
       <c r="BQ109" t="inlineStr"/>
+      <c r="BR109" t="inlineStr">
+        <is>
+          <t>4512891</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -23229,6 +23494,7 @@
         </is>
       </c>
       <c r="BQ110" t="inlineStr"/>
+      <c r="BR110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -23444,6 +23710,7 @@
         </is>
       </c>
       <c r="BQ111" t="inlineStr"/>
+      <c r="BR111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -23643,6 +23910,7 @@
         </is>
       </c>
       <c r="BQ112" t="inlineStr"/>
+      <c r="BR112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -23858,6 +24126,11 @@
         </is>
       </c>
       <c r="BQ113" t="inlineStr"/>
+      <c r="BR113" t="inlineStr">
+        <is>
+          <t>2986464</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -24077,6 +24350,11 @@
         </is>
       </c>
       <c r="BQ114" t="inlineStr"/>
+      <c r="BR114" t="inlineStr">
+        <is>
+          <t>3820850</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -24288,6 +24566,11 @@
         </is>
       </c>
       <c r="BQ115" t="inlineStr"/>
+      <c r="BR115" t="inlineStr">
+        <is>
+          <t>2959262</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -24495,6 +24778,7 @@
         </is>
       </c>
       <c r="BQ116" t="inlineStr"/>
+      <c r="BR116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -24698,6 +24982,7 @@
         </is>
       </c>
       <c r="BQ117" t="inlineStr"/>
+      <c r="BR117" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
